--- a/data/trans_dic/BARTHEL_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,84; 98,67</t>
+          <t>85,47; 98,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75,03; 100,0</t>
+          <t>74,77; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,58; 98,91</t>
+          <t>86,33; 98,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,82; 97,25</t>
+          <t>90,88; 97,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,95; 100,0</t>
+          <t>77,64; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,3; 100,0</t>
+          <t>72,85; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,95; 100,0</t>
+          <t>77,14; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,72; 96,42</t>
+          <t>86,07; 95,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,63; 97,85</t>
+          <t>86,8; 98,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>80,62; 98,38</t>
+          <t>81,93; 98,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>87,56; 98,11</t>
+          <t>87,35; 98,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,37; 95,91</t>
+          <t>90,75; 95,92</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,91; 100,0</t>
+          <t>91,07; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,42; 97,95</t>
+          <t>77,67; 98,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,79; 93,44</t>
+          <t>76,11; 94,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,98; 96,5</t>
+          <t>87,53; 96,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,03; 94,25</t>
+          <t>54,61; 94,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,58; 94,68</t>
+          <t>59,68; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,72; 92,37</t>
+          <t>38,4; 92,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,07; 93,09</t>
+          <t>77,94; 93,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,32; 98,23</t>
+          <t>85,86; 98,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>77,42; 94,79</t>
+          <t>78,27; 95,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71,79; 90,96</t>
+          <t>72,04; 91,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,22; 94,08</t>
+          <t>86,36; 93,88</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,65; 96,36</t>
+          <t>83,7; 96,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,86; 95,58</t>
+          <t>83,34; 95,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,8; 94,5</t>
+          <t>85,11; 95,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,24; 91,59</t>
+          <t>81,02; 91,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,7; 95,22</t>
+          <t>60,0; 95,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,01; 88,46</t>
+          <t>65,42; 88,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,99; 92,65</t>
+          <t>69,23; 92,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,05; 86,57</t>
+          <t>70,3; 86,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,31; 93,83</t>
+          <t>81,57; 94,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>80,91; 91,73</t>
+          <t>81,09; 91,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>83,59; 93,01</t>
+          <t>82,96; 92,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>79,23; 88,64</t>
+          <t>79,29; 88,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,49; 94,27</t>
+          <t>87,57; 94,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,34; 84,44</t>
+          <t>73,27; 84,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,32; 93,3</t>
+          <t>85,13; 92,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77,63; 85,47</t>
+          <t>78,21; 85,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,19; 96,27</t>
+          <t>84,31; 96,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,11; 87,25</t>
+          <t>65,14; 87,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,55; 87,02</t>
+          <t>69,43; 87,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>81,8; 98,43</t>
+          <t>81,74; 98,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,2; 93,75</t>
+          <t>88,16; 94,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,35; 83,22</t>
+          <t>73,36; 83,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>82,06; 90,29</t>
+          <t>81,27; 89,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,33; 96,0</t>
+          <t>81,7; 95,69</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,05; 93,51</t>
+          <t>75,78; 93,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>75,93; 90,73</t>
+          <t>76,42; 90,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,69; 86,41</t>
+          <t>74,21; 86,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,72; 90,86</t>
+          <t>79,99; 90,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>71,62; 88,63</t>
+          <t>71,8; 88,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,42; 72,92</t>
+          <t>58,78; 72,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>70,22; 84,91</t>
+          <t>70,24; 83,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>67,03; 75,52</t>
+          <t>67,32; 75,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>75,82; 88,68</t>
+          <t>76,73; 88,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>66,55; 77,64</t>
+          <t>67,29; 77,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>74,2; 84,15</t>
+          <t>73,9; 83,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>72,3; 79,31</t>
+          <t>72,22; 79,26</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,32; 100,0</t>
+          <t>16,55; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>83,39; 90,2</t>
+          <t>83,44; 90,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,7; 79,56</t>
+          <t>70,55; 79,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>71,5; 81,0</t>
+          <t>71,85; 81,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,75; 77,24</t>
+          <t>69,77; 77,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,14; 90,07</t>
+          <t>83,1; 90,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>70,75; 79,69</t>
+          <t>70,94; 79,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>71,5; 81,0</t>
+          <t>71,85; 81,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>69,87; 76,92</t>
+          <t>69,69; 77,12</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>89,4; 93,96</t>
+          <t>89,61; 94,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,02</t>
+          <t>81,53; 88,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,45; 90,5</t>
+          <t>85,61; 90,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,61; 88,97</t>
+          <t>84,7; 89,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>83,56; 89,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>70,75; 77,65</t>
+          <t>70,81; 77,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,72; 81,61</t>
+          <t>74,67; 81,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>76,4; 89,33</t>
+          <t>76,53; 90,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>86,97; 90,61</t>
+          <t>87,06; 90,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>76,33; 81,12</t>
+          <t>76,51; 81,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>80,25; 84,5</t>
+          <t>80,13; 84,64</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>81,06; 89,16</t>
+          <t>81,01; 89,13</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>56561</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40682</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>65465</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>101562</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27539</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23137</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34301</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>60389</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>84100</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>63819</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>99767</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>161951</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>51100; 58916</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32836; 43918</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>59262; 67887</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>97772; 104765</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23067; 29709</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18422; 25289</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28454; 36888</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56222; 62686</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>77676; 87716</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56702; 68073</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>92188; 103479</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>156914; 165852</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50011</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55080</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46106</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>88151</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12538</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15580</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12843</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40680</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>62550</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>70659</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>58949</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>128831</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46292; 50830</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47089; 59430</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40600; 50285</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>83147; 91848</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8620; 14902</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11281; 18902</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6753; 16205</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>36309; 43360</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57195; 65465</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>62247; 76087</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>51097; 64588</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>122266; 132921</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>65637</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>108335</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>109017</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>88588</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19802</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>43035</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38940</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42201</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>85440</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>151370</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>147958</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>130789</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>60058; 69160</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>98884; 113495</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>102359; 114348</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>82699; 93381</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14564; 23126</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35727; 48260</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31989; 42863</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37109; 45594</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>78336; 90597</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>140497; 159338</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>138104; 154639</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>122781; 137129</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>237670</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>183254</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>182852</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>194087</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>78398</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>46111</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>78286</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>305799</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>316068</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>229365</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>261138</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>499885</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>227736; 245210</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>169806; 196513</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>173544; 189368</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>184829; 203142</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>72297; 82641</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>39146; 52575</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>68765; 86274</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>266590; 321513</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>304862; 325103</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>214110; 242889</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>246175; 272031</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>459539; 538259</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>48125</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>86764</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>117790</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>78881</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>77802</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>124312</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>123522</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>145163</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>125927</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>211076</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>241313</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>224044</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>42032; 51862</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>78481; 93293</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>107773; 125744</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>73592; 83446</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>69106; 85434</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>110748; 137137</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>112065; 133502</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>136839; 153186</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>116405; 134534</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>195883; 226107</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>225219; 255290</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>213244; 234032</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3645</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>369668</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>298350</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>315722</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>234682</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>373313</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>315722</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>236794</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2324; 3645</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>856; 1988</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>530; 3204</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>354663; 383202</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>278480; 314523</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>296794; 335356</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>222586; 245687</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>356271; 386397</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>281427; 317188</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>296794; 335356</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>224577; 248501</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2153</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>461650</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>476102</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>521230</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>553380</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>585747</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>550525</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>603615</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>828914</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1047397</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1026627</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1124845</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1382295</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>449431; 472109</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>456251; 494339</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>506213; 535239</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>538827; 566322</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>565581; 602613</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>525393; 574822</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>576703; 626786</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>775362; 914622</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1025888; 1069161</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>995930; 1054910</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1092790; 1154209</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1336137; 1470055</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/BARTHEL_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
